--- a/biology/Botanique/Parc_des_larmes/Parc_des_larmes.xlsx
+++ b/biology/Botanique/Parc_des_larmes/Parc_des_larmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc des larmes (estonien : Pisarate park) est un parc de Tartu en Estonie[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc des larmes (estonien : Pisarate park) est un parc de Tartu en Estonie,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc des larmes est construit près de l'intersection des rues Turu tänav et Rebase tänav à Tartu pour commémorer les déportations soviétiques depuis l'Estonie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc des larmes est construit près de l'intersection des rues Turu tänav et Rebase tänav à Tartu pour commémorer les déportations soviétiques depuis l'Estonie.
 Le parc a été nommé parc des larmes en 2003 à l'initiative de l'Union estonienne du souvenir, du fonds commémoratif Ristideta Hauad et du Parti estonien de la liberté Põllumeeste Kogu (et).
 Le cheminement de milliers d'Estoniens vers la Sibérie a commencé par l'ancienne voie ferrée qui s'y trouvait.
 Pour commémorer les déportations massives, une pierre commémorative a été installée dans le parc, portant une inscription indiquant que c'est à cet endroit que les déportations massives du 14 juin 1941 et aussi de 1947 et 1949 ont commencé.
